--- a/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD111AC-39ED-4E10-94FE-E3E07E97B9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A17A7E-4A15-4D0C-88A2-1439D75FE5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>作成者</t>
   </si>
@@ -152,13 +152,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メニュー項目</t>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面遷移確認</t>
     <rPh sb="0" eb="4">
       <t>ガメンセンイ</t>
@@ -169,70 +162,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メッセージ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「エラー画面」と表示されている</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「エラー画面」と表示されている</t>
-    <rPh sb="0" eb="1">
-      <t>ショセキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーが発生しました。</t>
-    <rPh sb="4" eb="6">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「前へ戻る」と表示されている</t>
-    <rPh sb="1" eb="2">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「前へ戻る」を押下</t>
-    <rPh sb="1" eb="2">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>前の画面へ遷移すること</t>
-    <rPh sb="0" eb="1">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>事前条件</t>
     <rPh sb="0" eb="4">
       <t xml:space="preserve">ジゼンジョウケン </t>
@@ -246,6 +175,527 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t xml:space="preserve">ギホウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fullness Stationery社 文具/雑貨販売システム</t>
+    <rPh sb="19" eb="20">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ブング</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ザッカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンバイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者アカウント登録（確認）画面</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川</t>
+    <rPh sb="0" eb="2">
+      <t>タテカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー株式会社</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・画面の表示項目、入力内容におけるシステムの挙動・画面遷移について確認する。
+・数値の範囲を確認する場合には同値分割や境界値分析の手法を用いる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「文具/雑貨販売システム」と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ブング</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品情報メンテナンス」リンクが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録」リンクが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「購入履歴検索」リンクが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録」リンクが表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」ボタンが表示されている</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「キャンセル」リンクが表示されている</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>footer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Fullness Stationery社」と表示されている</t>
+    <rPh sb="20" eb="21">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「担当者アカウント登録（確認）画面」と表示されている</t>
+    <rPh sb="1" eb="4">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録（確認）」と表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者アカウント登録（入力）画面で入力した
+社員名：鈴木けんぞう
+アカウント名：suzuki
+パスワード：suzukikenzo
+が表示されていること</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「戻る」リンクが表示されている</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「登録」ボタンが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品情報メンテナンス」リンクを押下</t>
+    <rPh sb="1" eb="5">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移すること</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録」リンクを押下</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ登録(入力)画面へ遷移すること</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「購入履歴検索」リンクを押下</t>
+    <rPh sb="1" eb="5">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入履歴検索画面へ遷移すること</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面へ遷移すること</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録」リンクを押下</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録(入力)画面へ遷移すること</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」ボタンを押下</t>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「キャンセル」リンクを押下</t>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者アカウント登録（入力）画面へ遷移すること</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者ログイン後の「メニュー」画面に遷移する</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「戻る」リンクを押下</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「登録」ボタンを押下</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者アカウント登録（完了）画面へ遷移すること</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「不正な操作」</t>
+    <rPh sb="1" eb="3">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン」画面が表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セキュリティ確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/ec-b/registeraccount/confirm」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/ec-b/registeraccount/confirm」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -320,7 +770,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -529,13 +979,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,77 +1050,44 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -660,26 +1095,113 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1031,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C4" sqref="C4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1043,105 +1565,119 @@
     <col min="2" max="2" width="17.1796875" style="5" customWidth="1"/>
     <col min="3" max="6" width="7.1796875" style="4" customWidth="1"/>
     <col min="7" max="7" width="8" style="5" customWidth="1"/>
-    <col min="8" max="12" width="7.1796875" style="4" customWidth="1"/>
+    <col min="8" max="11" width="7.1796875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.08984375" style="4" customWidth="1"/>
     <col min="13" max="15" width="8.453125" style="4" customWidth="1"/>
-    <col min="16" max="17" width="17.1796875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="23.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="61"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10"/>
+      <c r="O2" s="10">
+        <v>45496</v>
+      </c>
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="33"/>
-    </row>
-    <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="33"/>
+      <c r="A3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="46"/>
+    </row>
+    <row r="4" spans="1:17" ht="37.5" customHeight="1">
+      <c r="A4" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1150,20 +1686,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="44" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1173,154 +1709,633 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="45"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-    </row>
-    <row r="7" spans="1:17" ht="11">
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+    </row>
+    <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-    </row>
-    <row r="8" spans="1:17" ht="11">
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+    </row>
+    <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
+      <c r="C8" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="41"/>
-    </row>
-    <row r="9" spans="1:17" ht="11">
+      <c r="P8" s="29"/>
+      <c r="Q8" s="30"/>
+    </row>
+    <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="34" t="s">
-        <v>18</v>
-      </c>
+      <c r="C9" s="34"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
       <c r="G9" s="36"/>
-      <c r="H9" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
+      <c r="H9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="41"/>
-    </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1">
+      <c r="P9" s="29"/>
+      <c r="Q9" s="30"/>
+    </row>
+    <row r="10" spans="1:17" ht="11" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" ht="11" customHeight="1">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" ht="11" customHeight="1">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="19"/>
+    </row>
+    <row r="13" spans="1:17" ht="11" customHeight="1">
+      <c r="A13" s="6">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="19"/>
+    </row>
+    <row r="14" spans="1:17" ht="11" customHeight="1">
+      <c r="A14" s="6">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" ht="92" customHeight="1">
+      <c r="A15" s="6">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" spans="1:17" ht="11" customHeight="1">
+      <c r="A16" s="6">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" spans="1:17" ht="11" customHeight="1">
+      <c r="A17" s="6">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="19"/>
+    </row>
+    <row r="18" spans="1:17" ht="11" customHeight="1">
+      <c r="A18" s="6">
+        <v>13</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="1:17" ht="11" customHeight="1">
+      <c r="A19" s="6">
+        <v>14</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="1:17" ht="43.5" customHeight="1">
+      <c r="A20" s="6">
+        <v>15</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="17"/>
+    </row>
+    <row r="21" spans="1:17" ht="46.5" customHeight="1">
+      <c r="A21" s="6">
+        <v>16</v>
+      </c>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="17"/>
+    </row>
+    <row r="22" spans="1:17" ht="11">
+      <c r="A22" s="6">
+        <v>17</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="1:17" ht="11">
+      <c r="A23" s="6">
+        <v>18</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="1:17" ht="11">
+      <c r="A24" s="6">
+        <v>19</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" spans="1:17" ht="14.5" customHeight="1">
+      <c r="A25" s="6">
+        <v>20</v>
+      </c>
+      <c r="B25" s="49"/>
+      <c r="C25" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+    </row>
+    <row r="26" spans="1:17" ht="11">
+      <c r="A26" s="6">
+        <v>21</v>
+      </c>
+      <c r="B26" s="49"/>
+      <c r="C26" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="19"/>
+    </row>
+    <row r="27" spans="1:17" ht="19.5" customHeight="1">
+      <c r="A27" s="6">
+        <v>22</v>
+      </c>
+      <c r="B27" s="49"/>
+      <c r="C27" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+    </row>
+    <row r="28" spans="1:17" ht="19.5" customHeight="1">
+      <c r="A28" s="6">
+        <v>23</v>
+      </c>
+      <c r="B28" s="49"/>
+      <c r="C28" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="25"/>
+    </row>
+    <row r="29" spans="1:17" ht="13" customHeight="1">
+      <c r="A29" s="6">
+        <v>24</v>
+      </c>
+      <c r="B29" s="62"/>
+      <c r="C29" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
+  <mergeCells count="62">
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="P5:Q5"/>
@@ -1332,11 +2347,25 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A17A7E-4A15-4D0C-88A2-1439D75FE5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BD333F-E7A2-4FC8-AE96-54F569CA26E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>作成者</t>
   </si>
@@ -346,25 +346,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「担当者アカウント登録（確認）画面」と表示されている</t>
-    <rPh sb="1" eb="4">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「アカウント登録（確認）」と表示されている</t>
     <rPh sb="6" eb="8">
       <t>トウロク</t>
@@ -378,11 +359,347 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>「戻る」リンクが表示されている</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「登録」ボタンが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品情報メンテナンス」リンクを押下</t>
+    <rPh sb="1" eb="5">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移すること</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録」リンクを押下</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ登録(入力)画面へ遷移すること</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「購入履歴検索」リンクを押下</t>
+    <rPh sb="1" eb="5">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入履歴検索画面へ遷移すること</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面へ遷移すること</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録」リンクを押下</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録(入力)画面へ遷移すること</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」ボタンを押下</t>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「キャンセル」リンクを押下</t>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者アカウント登録（入力）画面へ遷移すること</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者ログイン後の「メニュー」画面に遷移する</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「戻る」リンクを押下</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「登録」ボタンを押下</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者アカウント登録（完了）画面へ遷移すること</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「不正な操作」</t>
+    <rPh sb="1" eb="3">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン」画面が表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セキュリティ確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/ec-b/registeraccount/confirm」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/ec-b/registeraccount/confirm」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「担当者アカウント登録（入力）画面」で
+社員名：鈴木けんぞう
+アカウント名：suzuki
+パスワード：suzukikenzo
+が入力されていること</t>
+    <rPh sb="2" eb="5">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「担当者アカウント登録（確認）」と表示されている</t>
+    <rPh sb="1" eb="4">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>担当者アカウント登録（入力）画面で入力した
 社員名：鈴木けんぞう
 アカウント名：suzuki
-パスワード：suzukikenzo
-が表示されていること</t>
+パスワード：***********
+が表示されていること
+（***********の中身：suzukikenzo）</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
@@ -413,289 +730,8 @@
     <rPh sb="68" eb="70">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「戻る」リンクが表示されている</t>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「登録」ボタンが表示されている</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「商品情報メンテナンス」リンクを押下</t>
-    <rPh sb="1" eb="5">
-      <t>ショウヒンジョウホウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品検索画面へ遷移すること</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンケンサク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「商品カテゴリ登録」リンクを押下</t>
-    <rPh sb="1" eb="3">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品カテゴリ登録(入力)画面へ遷移すること</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「購入履歴検索」リンクを押下</t>
-    <rPh sb="1" eb="5">
-      <t>コウニュウリレキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>購入履歴検索画面へ遷移すること</t>
-    <rPh sb="0" eb="2">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン画面へ遷移すること</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「アカウント登録」リンクを押下</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録(入力)画面へ遷移すること</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ログアウト」ボタンを押下</t>
-    <rPh sb="11" eb="13">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「キャンセル」リンクを押下</t>
-    <rPh sb="11" eb="13">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>担当者アカウント登録（入力）画面へ遷移すること</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>管理者ログイン後の「メニュー」画面に遷移する</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「戻る」リンクを押下</t>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「登録」ボタンを押下</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>担当者アカウント登録（完了）画面へ遷移すること</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「不正な操作」</t>
-    <rPh sb="1" eb="3">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ログイン」画面が表示される。</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>セキュリティ確認</t>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/ec-b/registeraccount/confirm」を入力</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/ec-b/registeraccount/confirm」を入力</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ニュウリョク</t>
+    <rPh sb="91" eb="93">
+      <t>ナカミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1003,7 +1039,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1062,6 +1098,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1072,29 +1129,83 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1121,87 +1232,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1555,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:Q4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1574,25 +1604,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="52" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1607,23 +1637,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="56" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1635,49 +1665,51 @@
       </c>
       <c r="Q2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:17" ht="86" customHeight="1">
+      <c r="A3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="50"/>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1686,20 +1718,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="26" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1709,128 +1741,128 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="P5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="54"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="20" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="30"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="52"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="20" t="s">
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="30"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="52"/>
     </row>
     <row r="10" spans="1:17" ht="11" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="20" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1842,18 +1874,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="20" t="s">
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1865,18 +1897,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="20" t="s">
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1888,18 +1920,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="20" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1911,20 +1943,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1936,18 +1968,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1959,18 +1991,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="20" t="s">
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1982,18 +2014,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2005,18 +2037,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2028,20 +2060,20 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="20" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2052,23 +2084,23 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="23" t="s">
+      <c r="B20" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
+      <c r="C20" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2079,21 +2111,21 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2104,23 +2136,23 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+      <c r="C22" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2131,21 +2163,21 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2156,21 +2188,21 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2181,46 +2213,46 @@
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
     </row>
     <row r="26" spans="1:17" ht="11">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2231,79 +2263,125 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="20" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
     </row>
     <row r="28" spans="1:17" ht="19.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="63" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="25"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="23"/>
     </row>
     <row r="29" spans="1:17" ht="13" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="B20:B21"/>
@@ -2320,52 +2398,6 @@
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BD333F-E7A2-4FC8-AE96-54F569CA26E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8046F298-9066-4931-84F6-85416BB0CCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>作成者</t>
   </si>
@@ -221,22 +221,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>日本証券テクノロジー株式会社</t>
-    <rPh sb="0" eb="2">
-      <t>ニホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウケン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・画面の表示項目、入力内容におけるシステムの挙動・画面遷移について確認する。
 ・数値の範囲を確認する場合には同値分割や境界値分析の手法を用いる</t>
     <phoneticPr fontId="2"/>
@@ -600,45 +584,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「ログイン」画面が表示される。</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>セキュリティ確認</t>
     <rPh sb="6" eb="8">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/ec-b/registeraccount/confirm」を入力</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/ec-b/registeraccount/confirm」を入力</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -732,6 +680,74 @@
     </rPh>
     <rPh sb="91" eb="93">
       <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「担当者アカウント登録（確認）画面」と表示されている</t>
+    <rPh sb="1" eb="4">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン前メニュー」画面が表示される。</t>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/registeraccount/confirm」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/registeraccount/confirm」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1098,37 +1114,133 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1136,102 +1248,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1585,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:L15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1604,25 +1620,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1633,27 +1649,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="40" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1666,50 +1682,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="86" customHeight="1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="50"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="50"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1718,20 +1734,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="53" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1741,128 +1757,128 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="P5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="54"/>
+      <c r="Q5" s="46"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="52"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="45"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="52"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="45"/>
     </row>
     <row r="10" spans="1:17" ht="11" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1874,18 +1890,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1897,18 +1913,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1920,18 +1936,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1943,20 +1959,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
+      <c r="C14" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1968,18 +1984,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1991,18 +2007,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2014,18 +2030,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2037,18 +2053,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2060,307 +2076,302 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="18"/>
       <c r="Q19" s="19"/>
     </row>
-    <row r="20" spans="1:17" ht="43.5" customHeight="1">
+    <row r="20" spans="1:17" ht="11">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>58</v>
+      <c r="B20" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="17"/>
-    </row>
-    <row r="21" spans="1:17" ht="46.5" customHeight="1">
+      <c r="P20" s="18"/>
+      <c r="Q20" s="19"/>
+    </row>
+    <row r="21" spans="1:17" ht="11">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="17"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="19"/>
     </row>
     <row r="22" spans="1:17" ht="11">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="19"/>
     </row>
-    <row r="23" spans="1:17" ht="11">
+    <row r="23" spans="1:17" ht="14.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="19"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
     </row>
     <row r="24" spans="1:17" ht="11">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="26" t="s">
+      <c r="B24" s="47"/>
+      <c r="C24" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="19"/>
     </row>
-    <row r="25" spans="1:17" ht="14.5" customHeight="1">
+    <row r="25" spans="1:17" ht="19.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-    </row>
-    <row r="26" spans="1:17" ht="11">
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+    </row>
+    <row r="26" spans="1:17" ht="19.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="19"/>
-    </row>
-    <row r="27" spans="1:17" ht="19.5" customHeight="1">
+      <c r="P26" s="23"/>
+      <c r="Q26" s="25"/>
+    </row>
+    <row r="27" spans="1:17" ht="13" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-    </row>
-    <row r="28" spans="1:17" ht="19.5" customHeight="1">
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+    </row>
+    <row r="28" spans="1:17" ht="56.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
+      <c r="B28" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="23"/>
-    </row>
-    <row r="29" spans="1:17" ht="13" customHeight="1">
+      <c r="P28" s="16"/>
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="1:17" ht="58.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="25"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
     <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:M1"/>
@@ -2376,28 +2387,33 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8046F298-9066-4931-84F6-85416BB0CCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6234D2-A5A5-434A-B6F6-9794E278A6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,41 +500,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>担当者アカウント登録（入力）画面へ遷移すること</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>管理者ログイン後の「メニュー」画面に遷移する</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「戻る」リンクを押下</t>
     <rPh sb="1" eb="2">
       <t>モド</t>
@@ -748,6 +713,47 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ショウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者アカウント登録（入力）画面へ遷移し、セッションが保持されている</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者ログイン後の「メニュー」画面に遷移し、セッションが破棄される</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1114,6 +1120,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1123,27 +1141,93 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1170,84 +1254,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1601,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1620,25 +1626,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1649,27 +1655,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="55" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1682,50 +1688,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="86" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="43"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1734,20 +1740,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="28" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1757,128 +1763,128 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="P5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="46"/>
+      <c r="Q5" s="53"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="20" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="45"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="51"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="20" t="s">
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="45"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="51"/>
     </row>
     <row r="10" spans="1:17" ht="11" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="20" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1890,18 +1896,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="20" t="s">
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1913,18 +1919,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="20" t="s">
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1936,18 +1942,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="20" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1959,20 +1965,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="20" t="s">
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1984,18 +1990,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2007,18 +2013,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="20" t="s">
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2030,18 +2036,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="20" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2053,18 +2059,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="20" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2076,20 +2082,20 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="20" t="s">
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2100,23 +2106,23 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="48" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2127,21 +2133,21 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="48" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2152,21 +2158,21 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="48" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2177,148 +2183,148 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="48" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
     </row>
     <row r="24" spans="1:17" ht="11">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="48" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="19"/>
     </row>
-    <row r="25" spans="1:17" ht="19.5" customHeight="1">
+    <row r="25" spans="1:17" ht="39" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-    </row>
-    <row r="26" spans="1:17" ht="19.5" customHeight="1">
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+    </row>
+    <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="61" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="25"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="29"/>
     </row>
     <row r="27" spans="1:17" ht="13" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
     </row>
     <row r="28" spans="1:17" ht="56.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25"/>
+      <c r="B28" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="29"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2329,21 +2335,21 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="25"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="29"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -2352,31 +2358,27 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2393,27 +2395,31 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6234D2-A5A5-434A-B6F6-9794E278A6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEA6E81-7072-433F-ADAA-9503082666A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -681,32 +681,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/registeraccount/confirm」を入力</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/registeraccount/confirm」を入力</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日本証券テクノロジー</t>
     <rPh sb="0" eb="2">
       <t>ニホン</t>
@@ -754,6 +728,32 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>ハキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/registeraccount/confirm」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/admin/registeraccount/confirm」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1120,37 +1120,133 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1158,102 +1254,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1607,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:L26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1626,25 +1626,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1655,27 +1655,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="39" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1688,50 +1688,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="86" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="49"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="49"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1740,20 +1740,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="52" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1763,128 +1763,128 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="P5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="53"/>
+      <c r="Q5" s="46"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="51"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="45"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="24" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="51"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="45"/>
     </row>
     <row r="10" spans="1:17" ht="11" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="24" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1896,18 +1896,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="24" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1919,18 +1919,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="24" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1942,18 +1942,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="24" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1965,20 +1965,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="24" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1990,18 +1990,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="24" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2013,18 +2013,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="24" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2036,18 +2036,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="24" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2059,18 +2059,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="24" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2082,20 +2082,20 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="24" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2106,23 +2106,23 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="20" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2133,21 +2133,21 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="20" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2158,21 +2158,21 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="24" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="20" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2183,46 +2183,46 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="20" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
     </row>
     <row r="24" spans="1:17" ht="11">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="24" t="s">
+      <c r="B24" s="47"/>
+      <c r="C24" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="20" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2233,98 +2233,98 @@
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="47"/>
+      <c r="C25" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="24" t="s">
+      <c r="B26" s="47"/>
+      <c r="C26" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="29"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="1:17" ht="13" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="30" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="27" t="s">
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
     </row>
     <row r="28" spans="1:17" ht="56.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="28" t="s">
+      <c r="C28" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="29"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2335,21 +2335,21 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="28" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="29"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="25"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -2358,11 +2358,47 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="H19:L19"/>
     <mergeCell ref="H5:L5"/>
@@ -2379,47 +2415,11 @@
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEA6E81-7072-433F-ADAA-9503082666A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E11D99-9361-4D60-93B0-4E7658B69D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>作成者</t>
   </si>
@@ -754,6 +754,27 @@
     </rPh>
     <rPh sb="75" eb="77">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSRF対策：
+画面をリロードをする</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのままの画面が表示されるようにする</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1061,7 +1082,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1139,121 +1160,130 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1605,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:G29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1626,25 +1656,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1659,23 +1689,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="55" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1688,50 +1718,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="86" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1740,20 +1770,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="28" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1763,75 +1793,75 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="P5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="46"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="20" t="s">
         <v>26</v>
       </c>
@@ -1842,19 +1872,19 @@
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="46"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="20" t="s">
         <v>27</v>
       </c>
@@ -1865,19 +1895,19 @@
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="46"/>
     </row>
     <row r="10" spans="1:17" ht="11" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="20" t="s">
         <v>28</v>
       </c>
@@ -1896,11 +1926,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="20" t="s">
         <v>29</v>
       </c>
@@ -1919,11 +1949,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="20" t="s">
         <v>30</v>
       </c>
@@ -1942,11 +1972,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="20" t="s">
         <v>31</v>
       </c>
@@ -1965,13 +1995,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="20" t="s">
         <v>36</v>
       </c>
@@ -1990,11 +2020,11 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
       <c r="H15" s="20" t="s">
         <v>57</v>
       </c>
@@ -2013,11 +2043,11 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="20" t="s">
         <v>33</v>
       </c>
@@ -2036,11 +2066,11 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
       <c r="H17" s="20" t="s">
         <v>37</v>
       </c>
@@ -2059,11 +2089,11 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="20" t="s">
         <v>38</v>
       </c>
@@ -2106,7 +2136,7 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="48" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="20" t="s">
@@ -2116,13 +2146,13 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="48" t="s">
+      <c r="H20" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2133,7 +2163,7 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="20" t="s">
         <v>41</v>
       </c>
@@ -2141,13 +2171,13 @@
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="48" t="s">
+      <c r="H21" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2158,7 +2188,7 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="47"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="20" t="s">
         <v>43</v>
       </c>
@@ -2166,13 +2196,13 @@
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="48" t="s">
+      <c r="H22" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2183,7 +2213,7 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="47"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="20" t="s">
         <v>46</v>
       </c>
@@ -2191,24 +2221,24 @@
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
     </row>
     <row r="24" spans="1:17" ht="11">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="47"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="20" t="s">
         <v>48</v>
       </c>
@@ -2216,13 +2246,13 @@
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="48" t="s">
+      <c r="H24" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2233,7 +2263,7 @@
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="47"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="20" t="s">
         <v>49</v>
       </c>
@@ -2241,24 +2271,24 @@
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="61" t="s">
+      <c r="H25" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="47"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="20" t="s">
         <v>50</v>
       </c>
@@ -2266,13 +2296,13 @@
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="61" t="s">
+      <c r="H26" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2283,26 +2313,26 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="62" t="s">
+      <c r="B27" s="67"/>
+      <c r="C27" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="61" t="s">
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
     </row>
     <row r="28" spans="1:17" ht="56.5" customHeight="1">
       <c r="A28" s="6">
@@ -2356,8 +2386,33 @@
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
     </row>
+    <row r="30" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A30" s="6">
+        <v>25</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="64">
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="B20:B27"/>
     <mergeCell ref="C21:G21"/>
@@ -2415,11 +2470,13 @@
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="B28:B30"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="H29:L29"/>
-    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E11D99-9361-4D60-93B0-4E7658B69D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51991DEF-1A8D-4DAB-8669-280420A4D165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>作成者</t>
   </si>
@@ -587,22 +587,6 @@
     </rPh>
     <rPh sb="67" eb="69">
       <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「担当者アカウント登録（確認）」と表示されている</t>
-    <rPh sb="1" eb="4">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -649,25 +633,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「担当者アカウント登録（確認）画面」と表示されている</t>
-    <rPh sb="1" eb="4">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「ログイン前メニュー」画面が表示される。</t>
     <rPh sb="5" eb="6">
       <t>マエ</t>
@@ -775,6 +740,82 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録（確認）画面」と表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン前メニューに遷移する</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー画面に遷移した後、もう一度アカウント登録（入力）に戻るとまだセッションが保持されている</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認ボタンになっている</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1141,6 +1182,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1150,13 +1203,118 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1167,123 +1325,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1637,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1656,25 +1697,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1685,27 +1726,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="57" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1715,53 +1756,55 @@
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="12" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="86" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1770,20 +1813,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="29" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1793,131 +1836,161 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="P5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="53"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="20" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="46"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="51"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="20" t="s">
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="46"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="51"/>
     </row>
     <row r="10" spans="1:17" ht="11" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="20" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="19"/>
     </row>
@@ -1926,21 +1999,27 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="20" t="s">
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="19"/>
     </row>
@@ -1949,21 +2028,27 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="20" t="s">
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="19"/>
     </row>
@@ -1972,21 +2057,27 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="20" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="19"/>
     </row>
@@ -1995,23 +2086,29 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="20" t="s">
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P14" s="18"/>
       <c r="Q14" s="19"/>
     </row>
@@ -2020,21 +2117,27 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="19"/>
     </row>
@@ -2043,21 +2146,27 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="20" t="s">
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="19"/>
     </row>
@@ -2066,21 +2175,27 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="20" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="19"/>
     </row>
@@ -2089,22 +2204,30 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="20" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="18"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>71</v>
+      </c>
       <c r="Q18" s="19"/>
     </row>
     <row r="19" spans="1:17" ht="11" customHeight="1">
@@ -2112,23 +2235,29 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="20" t="s">
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="19"/>
     </row>
@@ -2136,26 +2265,32 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="50" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P20" s="18"/>
       <c r="Q20" s="19"/>
     </row>
@@ -2163,24 +2298,30 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="50" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="19"/>
     </row>
@@ -2188,173 +2329,211 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="50" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P22" s="18"/>
       <c r="Q22" s="19"/>
     </row>
-    <row r="23" spans="1:17" ht="14.5" customHeight="1">
+    <row r="23" spans="1:17" ht="29.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="50" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
     </row>
     <row r="24" spans="1:17" ht="11">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="50" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="19"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="1:17" ht="39" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="7"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="O25" s="7"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
+      <c r="P25" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q25" s="27"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="29"/>
     </row>
     <row r="27" spans="1:17" ht="13" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="64" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="63" t="s">
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
     </row>
     <row r="28" spans="1:17" ht="56.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23" t="s">
+      <c r="C28" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="29"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2365,21 +2544,21 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="25"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="29"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -2390,21 +2569,21 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="25"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="29"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -2412,32 +2591,30 @@
       <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+  <mergeCells count="65">
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2454,29 +2631,32 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51991DEF-1A8D-4DAB-8669-280420A4D165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDF7D55-C43F-46AF-AA3E-B9967AB88BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>作成者</t>
   </si>
@@ -353,16 +353,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「登録」ボタンが表示されている</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「商品情報メンテナンス」リンクを押下</t>
     <rPh sb="1" eb="5">
       <t>ショウヒンジョウホウ</t>
@@ -450,16 +440,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログイン画面へ遷移すること</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「アカウント登録」リンクを押下</t>
     <rPh sb="6" eb="8">
       <t>トウロク</t>
@@ -503,16 +483,6 @@
     <t>「戻る」リンクを押下</t>
     <rPh sb="1" eb="2">
       <t>モド</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「登録」ボタンを押下</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
     </rPh>
     <rPh sb="8" eb="10">
       <t>オウカ</t>
@@ -633,19 +603,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「ログイン前メニュー」画面が表示される。</t>
-    <rPh sb="5" eb="6">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日本証券テクノロジー</t>
     <rPh sb="0" eb="2">
       <t>ニホン</t>
@@ -816,6 +773,49 @@
     <t>確認ボタンになっている</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン前メニュー画面へ遷移すること</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「完了」ボタンが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「完了」ボタンを押下</t>
+    <rPh sb="1" eb="3">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン」画面が表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1182,149 +1182,149 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1679,7 +1679,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:Q4"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1697,25 +1697,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1726,27 +1726,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="39" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1757,54 +1757,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="86" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="49"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="49"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1813,20 +1813,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="52" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1836,160 +1836,160 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="P5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="53"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="15">
         <v>45504</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
+        <v>62</v>
+      </c>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
       <c r="M7" s="15">
         <v>45504</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+        <v>62</v>
+      </c>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="15">
         <v>45504</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="51"/>
+        <v>62</v>
+      </c>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="46"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="24" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="15">
         <v>45504</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="51"/>
+        <v>62</v>
+      </c>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="46"/>
     </row>
     <row r="10" spans="1:17" ht="11" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="24" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="15">
         <v>45504</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="19"/>
@@ -1999,26 +1999,26 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="24" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="15">
         <v>45504</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="19"/>
@@ -2028,26 +2028,26 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="24" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="15">
         <v>45504</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="19"/>
@@ -2057,26 +2057,26 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="24" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="15">
         <v>45504</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="19"/>
@@ -2086,28 +2086,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="24" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="15">
         <v>45504</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P14" s="18"/>
       <c r="Q14" s="19"/>
@@ -2117,26 +2117,26 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="15">
         <v>45504</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="19"/>
@@ -2146,26 +2146,26 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="24" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="15">
         <v>45504</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="19"/>
@@ -2175,26 +2175,26 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="24" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="15">
         <v>45504</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="19"/>
@@ -2204,29 +2204,29 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
       <c r="M18" s="15">
         <v>45504</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P18" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q18" s="19"/>
     </row>
@@ -2235,28 +2235,28 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="24" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
       <c r="M19" s="15">
         <v>45504</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="19"/>
@@ -2265,31 +2265,31 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
       <c r="M20" s="15">
         <v>45504</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P20" s="18"/>
       <c r="Q20" s="19"/>
@@ -2298,29 +2298,29 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="49"/>
+      <c r="C21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
       <c r="M21" s="15">
         <v>45504</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="19"/>
@@ -2329,29 +2329,29 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="24" t="s">
+      <c r="B22" s="49"/>
+      <c r="C22" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="15">
         <v>45504</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P22" s="18"/>
       <c r="Q22" s="19"/>
@@ -2360,183 +2360,185 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
       <c r="M23" s="15">
         <v>45504</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
+        <v>62</v>
+      </c>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
     </row>
     <row r="24" spans="1:17" ht="11">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
       <c r="M24" s="15">
         <v>45504</v>
       </c>
       <c r="N24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P24" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q24" s="29"/>
+      <c r="Q24" s="25"/>
     </row>
     <row r="25" spans="1:17" ht="39" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
       <c r="M25" s="15">
         <v>45504</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O25" s="7"/>
-      <c r="P25" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q25" s="27"/>
+      <c r="P25" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q25" s="63"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
       <c r="M26" s="15">
         <v>45504</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="29"/>
+        <v>62</v>
+      </c>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="1:17" ht="13" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
       <c r="M27" s="15">
         <v>45504</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
+        <v>62</v>
+      </c>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
     </row>
     <row r="28" spans="1:17" ht="56.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="29"/>
+      <c r="B28" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
+      <c r="O28" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
     </row>
@@ -2544,24 +2546,26 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="29"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="25"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="O29" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
     </row>
@@ -2569,36 +2573,73 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="29"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="25"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
+      <c r="O30" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P30" s="16"/>
       <c r="Q30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="H19:L19"/>
     <mergeCell ref="H5:L5"/>
@@ -2615,48 +2656,13 @@
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDF7D55-C43F-46AF-AA3E-B9967AB88BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2ECDE7-F48A-4D41-B12D-E06ED0C8378C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>作成者</t>
   </si>
@@ -1182,6 +1182,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1191,13 +1203,118 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1208,123 +1325,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1678,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C18" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1697,25 +1697,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1730,23 +1730,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="57" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1761,50 +1761,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="86" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1813,20 +1813,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="29" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1836,32 +1836,32 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="P5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="53"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
       <c r="M6" s="15">
         <v>45504</v>
       </c>
@@ -1871,28 +1871,28 @@
       <c r="O6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
       <c r="M7" s="15">
         <v>45504</v>
       </c>
@@ -1902,28 +1902,28 @@
       <c r="O7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="20" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="15">
         <v>45504</v>
       </c>
@@ -1933,26 +1933,26 @@
       <c r="O8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="46"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="51"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="20" t="s">
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="15">
         <v>45504</v>
       </c>
@@ -1962,26 +1962,26 @@
       <c r="O9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="46"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="51"/>
     </row>
     <row r="10" spans="1:17" ht="11" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="20" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="15">
         <v>45504</v>
       </c>
@@ -1999,18 +1999,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="20" t="s">
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="15">
         <v>45504</v>
       </c>
@@ -2028,18 +2028,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="20" t="s">
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="15">
         <v>45504</v>
       </c>
@@ -2057,18 +2057,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="20" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="15">
         <v>45504</v>
       </c>
@@ -2086,20 +2086,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="20" t="s">
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="15">
         <v>45504</v>
       </c>
@@ -2117,18 +2117,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="20" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="15">
         <v>45504</v>
       </c>
@@ -2146,18 +2146,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="20" t="s">
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="15">
         <v>45504</v>
       </c>
@@ -2175,18 +2175,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="20" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="15">
         <v>45504</v>
       </c>
@@ -2204,18 +2204,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="20" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
       <c r="M18" s="15">
         <v>45504</v>
       </c>
@@ -2235,20 +2235,20 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="20" t="s">
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
       <c r="M19" s="15">
         <v>45504</v>
       </c>
@@ -2265,23 +2265,23 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="50" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="15">
         <v>45504</v>
       </c>
@@ -2298,21 +2298,21 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="50" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
       <c r="M21" s="15">
         <v>45504</v>
       </c>
@@ -2329,21 +2329,21 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="50" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
       <c r="M22" s="15">
         <v>45504</v>
       </c>
@@ -2360,21 +2360,21 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="63" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
       <c r="M23" s="15">
         <v>45504</v>
       </c>
@@ -2384,28 +2384,28 @@
       <c r="O23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
     </row>
     <row r="24" spans="1:17" ht="11">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="50" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
       <c r="M24" s="15">
         <v>45504</v>
       </c>
@@ -2415,61 +2415,63 @@
       <c r="O24" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P24" s="23" t="s">
+      <c r="P24" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="Q24" s="25"/>
+      <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="1:17" ht="39" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="63" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
       <c r="M25" s="15">
         <v>45504</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="O25" s="7"/>
-      <c r="P25" s="63" t="s">
+      <c r="O25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="Q25" s="63"/>
+      <c r="Q25" s="27"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="63" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
       <c r="M26" s="15">
         <v>45504</v>
       </c>
@@ -2479,28 +2481,28 @@
       <c r="O26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="25"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="29"/>
     </row>
     <row r="27" spans="1:17" ht="13" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="64" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="63" t="s">
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
       <c r="M27" s="15">
         <v>45504</v>
       </c>
@@ -2510,34 +2512,38 @@
       <c r="O27" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
     </row>
     <row r="28" spans="1:17" ht="56.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23" t="s">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="7"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="O28" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
@@ -2546,23 +2552,27 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="66"/>
+      <c r="C29" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="7"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="O29" s="7" t="s">
         <v>62</v>
       </c>
@@ -2573,23 +2583,27 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="67"/>
+      <c r="C30" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23" t="s">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="7"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="O30" s="7" t="s">
         <v>62</v>
       </c>
@@ -2598,32 +2612,29 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2640,29 +2651,32 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2ECDE7-F48A-4D41-B12D-E06ED0C8378C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD40E54E-5D01-4DEA-BA91-B6C1D17B09D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="270" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -509,96 +509,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「不正な操作」</t>
-    <rPh sb="1" eb="3">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>セキュリティ確認</t>
     <rPh sb="6" eb="8">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・「担当者アカウント登録（入力）画面」で
-社員名：鈴木けんぞう
-アカウント名：suzuki
-パスワード：suzukikenzo
-が入力されていること</t>
-    <rPh sb="2" eb="5">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>担当者アカウント登録（入力）画面で入力した
-社員名：鈴木けんぞう
-アカウント名：suzuki
-パスワード：***********
-が表示されていること
-（***********の中身：suzukikenzo）</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>ナカミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -728,10 +641,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログイン前メニューに遷移する</t>
     <rPh sb="4" eb="5">
       <t>マエ</t>
@@ -816,6 +725,109 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システムエラー画面に遷移される。</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「担当者アカウント登録（入力）画面」で
+社員名：田中花子
+アカウント名:hanako
+パスワード：hanako
+が入力されていること</t>
+    <rPh sb="2" eb="5">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者アカウント登録（入力）画面で入力した
+社員名：田中花子
+アカウント名：hanako
+パスワード：＊＊＊＊＊＊
+が表示されていること
+（＊＊＊＊＊＊の中身：hanako）</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良・舘川</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タテカワ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1182,149 +1194,149 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1678,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C18" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25:Q25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G26" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1697,25 +1709,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1726,27 +1738,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="39" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1757,54 +1769,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="86" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="49"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="49"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1813,20 +1825,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="52" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1836,160 +1848,160 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="P5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="53"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="15">
         <v>45504</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
+        <v>59</v>
+      </c>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
       <c r="M7" s="15">
         <v>45504</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+        <v>59</v>
+      </c>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="15">
         <v>45504</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="51"/>
+        <v>59</v>
+      </c>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="46"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="24" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="15">
         <v>45504</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="51"/>
+        <v>59</v>
+      </c>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="46"/>
     </row>
     <row r="10" spans="1:17" ht="11" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="24" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="15">
         <v>45504</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="19"/>
@@ -1999,26 +2011,26 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="24" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="15">
         <v>45504</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="19"/>
@@ -2028,26 +2040,26 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="24" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="15">
         <v>45504</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="19"/>
@@ -2057,26 +2069,26 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="24" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="15">
         <v>45504</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="19"/>
@@ -2086,28 +2098,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="24" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="15">
         <v>45504</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P14" s="18"/>
       <c r="Q14" s="19"/>
@@ -2117,26 +2129,26 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="15">
         <v>45504</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="19"/>
@@ -2146,26 +2158,26 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="24" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="15">
         <v>45504</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="19"/>
@@ -2175,26 +2187,26 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="24" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="15">
         <v>45504</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="19"/>
@@ -2204,29 +2216,29 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
       <c r="M18" s="15">
         <v>45504</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P18" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q18" s="19"/>
     </row>
@@ -2235,28 +2247,28 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="24" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
       <c r="M19" s="15">
         <v>45504</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="19"/>
@@ -2265,31 +2277,31 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="20" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
       <c r="M20" s="15">
         <v>45504</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P20" s="18"/>
       <c r="Q20" s="19"/>
@@ -2298,29 +2310,29 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="49"/>
+      <c r="C21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="20" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
       <c r="M21" s="15">
         <v>45504</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="19"/>
@@ -2329,29 +2341,29 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="24" t="s">
+      <c r="B22" s="49"/>
+      <c r="C22" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="20" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="15">
         <v>45504</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P22" s="18"/>
       <c r="Q22" s="19"/>
@@ -2360,190 +2372,190 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="49"/>
+      <c r="C23" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
       <c r="M23" s="15">
         <v>45504</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
+        <v>59</v>
+      </c>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
     </row>
     <row r="24" spans="1:17" ht="11">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="24" t="s">
+      <c r="B24" s="49"/>
+      <c r="C24" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
       <c r="M24" s="15">
         <v>45504</v>
       </c>
       <c r="N24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P24" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q24" s="29"/>
+      <c r="Q24" s="25"/>
     </row>
     <row r="25" spans="1:17" ht="39" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="49"/>
+      <c r="C25" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
       <c r="M25" s="15">
         <v>45504</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P25" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q25" s="27"/>
+        <v>59</v>
+      </c>
+      <c r="P25" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q25" s="63"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="24" t="s">
+      <c r="B26" s="49"/>
+      <c r="C26" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
       <c r="M26" s="15">
         <v>45504</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="29"/>
+        <v>59</v>
+      </c>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="1:17" ht="13" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="27" t="s">
+      <c r="B27" s="67"/>
+      <c r="C27" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
       <c r="M27" s="15">
         <v>45504</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
+        <v>59</v>
+      </c>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
     </row>
     <row r="28" spans="1:17" ht="56.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="28" t="s">
+      <c r="B28" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="29"/>
+      <c r="C28" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="15">
         <v>45504</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
@@ -2552,29 +2564,29 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="29"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="25"/>
       <c r="M29" s="15">
         <v>45504</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
@@ -2583,42 +2595,77 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="29"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="25"/>
       <c r="M30" s="15">
         <v>45504</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P30" s="16"/>
       <c r="Q30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="H19:L19"/>
     <mergeCell ref="H5:L5"/>
@@ -2635,48 +2682,13 @@
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD40E54E-5D01-4DEA-BA91-B6C1D17B09D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ED4CBD-B85C-4687-ACFD-AA7BDBED1923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="270" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
   <si>
     <t>作成者</t>
   </si>
@@ -828,6 +828,20 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>タテカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未実装</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>後回しでOK</t>
+    <rPh sb="0" eb="2">
+      <t>アトマワ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1135,7 +1149,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1155,32 +1169,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1189,27 +1233,108 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1221,122 +1346,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1690,8 +1701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G26" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1709,25 +1720,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1742,914 +1753,911 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="57" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="9" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>45496</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="86" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="29" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="14" t="s">
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="P5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="51"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="15">
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="66">
         <v>45504</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="15">
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="66">
         <v>45504</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="20" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="15">
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="66">
         <v>45504</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="46"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="49"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="20" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="15">
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="66">
         <v>45504</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="46"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="49"/>
     </row>
     <row r="10" spans="1:17" ht="11" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="20" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="15">
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="66">
         <v>45504</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="19"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="1:17" ht="11" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="20" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="15">
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="66">
         <v>45504</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="19"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="1:17" ht="11" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="20" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="15">
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="66">
         <v>45504</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="19"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="17"/>
     </row>
     <row r="13" spans="1:17" ht="11" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="20" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="15">
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="66">
         <v>45504</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="19"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:17" ht="11" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="20" t="s">
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="15">
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="66">
         <v>45504</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="19"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:17" ht="92" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="20" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="15">
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="66">
         <v>45504</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="19"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="11" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="20" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="15">
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="66">
         <v>45504</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="19"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="11" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="20" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="15">
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="66">
         <v>45504</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="19"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="11" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="20" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="15">
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="66">
         <v>45504</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P18" s="18" t="s">
+      <c r="P18" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="Q18" s="19"/>
+      <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="11" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="20" t="s">
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="15">
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="66">
         <v>45504</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="19"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="11">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="50" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="15">
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="66">
         <v>45504</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="19"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" ht="11">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="50" t="s">
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="15">
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="66">
         <v>45504</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="19"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="11">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="50" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="15">
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="66">
         <v>45504</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="19"/>
+      <c r="O22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:17" ht="29.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="63" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="15">
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="66">
         <v>45504</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
     </row>
     <row r="24" spans="1:17" ht="11">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="50" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="15">
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="66">
         <v>45504</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="O24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P24" s="23" t="s">
+      <c r="P24" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="Q24" s="25"/>
+      <c r="Q24" s="27"/>
     </row>
     <row r="25" spans="1:17" ht="39" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="63" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="15">
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="66">
         <v>45504</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P25" s="63" t="s">
+      <c r="O25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="Q25" s="63"/>
+      <c r="Q25" s="25"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="63" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="15">
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="66">
         <v>45504</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="O26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="25"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="27"/>
     </row>
     <row r="27" spans="1:17" ht="13" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="64" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="63" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="15">
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="66">
         <v>45504</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="O27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
     </row>
     <row r="28" spans="1:17" ht="56.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23" t="s">
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="15">
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="66">
         <v>45504</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="O28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="17"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="15"/>
     </row>
     <row r="29" spans="1:17" ht="58.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="64"/>
+      <c r="C29" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23" t="s">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="15">
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="66">
         <v>45504</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O29" s="7" t="s">
+      <c r="O29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="17"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="15"/>
     </row>
     <row r="30" spans="1:17" ht="58.5" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="65"/>
+      <c r="C30" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23" t="s">
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="15">
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="66">
         <v>45504</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="N30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O30" s="7" t="s">
+      <c r="O30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="17"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2666,29 +2674,32 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP004担当者アカウント登録(確認)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ED4CBD-B85C-4687-ACFD-AA7BDBED1923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C214FFDA-DFAC-46C4-892A-E3CEDD05033D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
   <si>
     <t>作成者</t>
   </si>
@@ -725,16 +725,6 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>システムエラー画面に遷移される。</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1202,152 +1192,152 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1701,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:L26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B23" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1720,25 +1710,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1753,23 +1743,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="37" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="61"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1780,54 +1770,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="86" customHeight="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="47"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="47"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1836,20 +1826,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="50" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1859,33 +1849,33 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="51"/>
+      <c r="Q5" s="46"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18" t="s">
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="66">
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="18">
         <v>45504</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -1894,29 +1884,29 @@
       <c r="O6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="66">
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="18">
         <v>45504</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -1925,29 +1915,29 @@
       <c r="O7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="22" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="66">
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="18">
         <v>45504</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -1956,27 +1946,27 @@
       <c r="O8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="49"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="45"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="22" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="66">
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="18">
         <v>45504</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -1985,27 +1975,27 @@
       <c r="O9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="49"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="45"/>
     </row>
     <row r="10" spans="1:17" ht="11" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="22" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="66">
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="18">
         <v>45504</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -2022,19 +2012,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="22" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="66">
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="18">
         <v>45504</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -2051,19 +2041,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="22" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="66">
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="18">
         <v>45504</v>
       </c>
       <c r="N12" s="2" t="s">
@@ -2080,19 +2070,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="22" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="66">
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="18">
         <v>45504</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -2109,21 +2099,21 @@
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="22" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="66">
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="18">
         <v>45504</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -2140,19 +2130,19 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="66">
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="18">
         <v>45504</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -2169,23 +2159,23 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="22" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="66">
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="18">
         <v>45504</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>59</v>
@@ -2198,23 +2188,23 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="22" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="66">
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="18">
         <v>45504</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>59</v>
@@ -2227,23 +2217,23 @@
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="22" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="66">
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="18">
         <v>45504</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>59</v>
@@ -2258,25 +2248,25 @@
         <v>14</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="22" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="66">
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="18">
         <v>45504</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>59</v>
@@ -2288,28 +2278,28 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="18" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="66">
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="18">
         <v>45504</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>59</v>
@@ -2321,26 +2311,26 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="18" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="66">
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="18">
         <v>45504</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>59</v>
@@ -2352,29 +2342,29 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="22" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="18" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="66">
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="18">
         <v>45504</v>
       </c>
       <c r="N22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O22" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
@@ -2383,187 +2373,187 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="66">
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="18">
         <v>45504</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
     </row>
     <row r="24" spans="1:17" ht="11">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="22" t="s">
+      <c r="B24" s="48"/>
+      <c r="C24" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="18" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="66">
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="18">
         <v>45504</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P24" s="26" t="s">
+      <c r="P24" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="Q24" s="27"/>
+      <c r="Q24" s="24"/>
     </row>
     <row r="25" spans="1:17" ht="39" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="48"/>
+      <c r="C25" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="25" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="66">
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="18">
         <v>45504</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P25" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="Q25" s="25"/>
+      <c r="Q25" s="62"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="22" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="66">
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="18">
         <v>45504</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="27"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="24"/>
     </row>
     <row r="27" spans="1:17" ht="13" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="28" t="s">
+      <c r="B27" s="66"/>
+      <c r="C27" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="25" t="s">
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="66">
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="18">
         <v>45504</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
     </row>
     <row r="28" spans="1:17" ht="56.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="66">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="18">
         <v>45504</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>59</v>
@@ -2575,26 +2565,26 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="26" t="s">
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="66">
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="18">
         <v>45504</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>59</v>
@@ -2606,26 +2596,26 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="27"/>
+      <c r="C30" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="26" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="66">
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="18">
         <v>45504</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>59</v>
@@ -2635,13 +2625,48 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="H19:L19"/>
     <mergeCell ref="H5:L5"/>
@@ -2658,48 +2683,13 @@
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
